--- a/docs/勾江涛协议修改/ARM9集中器协议/集中器计量表信息V2.0.xlsx
+++ b/docs/勾江涛协议修改/ARM9集中器协议/集中器计量表信息V2.0.xlsx
@@ -1,14 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="114210"/>
 </workbook>
@@ -406,6 +405,7 @@
         <sz val="10.5"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>X</t>
@@ -425,6 +425,7 @@
         <sz val="10.5"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>-</t>
@@ -434,6 +435,7 @@
         <sz val="10.5"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>13</t>
@@ -443,6 +445,7 @@
         <sz val="10.5"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>-</t>
@@ -452,6 +455,7 @@
         <sz val="10.5"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>01</t>
@@ -461,6 +465,7 @@
         <sz val="10.5"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>-01</t>
@@ -476,6 +481,7 @@
         <sz val="10.5"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>13</t>
@@ -485,6 +491,7 @@
         <sz val="10.5"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>-</t>
@@ -494,6 +501,7 @@
         <sz val="10.5"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>01</t>
@@ -503,6 +511,7 @@
         <sz val="10.5"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>-02</t>
@@ -518,6 +527,7 @@
         <sz val="10.5"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>13</t>
@@ -527,6 +537,7 @@
         <sz val="10.5"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>-</t>
@@ -536,6 +547,7 @@
         <sz val="10.5"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>01</t>
@@ -545,6 +557,7 @@
         <sz val="10.5"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>-01代表15号楼13层1单元01户</t>
@@ -569,8 +582,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -581,24 +594,28 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -723,19 +740,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -756,12 +767,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -808,7 +833,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -840,9 +865,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -874,6 +900,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1049,17 +1076,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.125" customWidth="1"/>
+    <col min="2" max="2" width="36.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.25" customWidth="1"/>
     <col min="4" max="4" width="19.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.25" customWidth="1"/>
@@ -1072,7 +1099,7 @@
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -1080,7 +1107,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>92</v>
       </c>
@@ -1103,7 +1130,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>93</v>
       </c>
@@ -1126,41 +1153,41 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="13" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1168,7 +1195,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1188,7 +1215,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -1208,7 +1235,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1216,7 +1243,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1227,7 +1254,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -1241,7 +1268,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -1249,7 +1276,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -1260,7 +1287,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -1274,7 +1301,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -1282,7 +1309,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -1320,7 +1347,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -1358,7 +1385,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>56</v>
       </c>
@@ -1366,7 +1393,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>57</v>
       </c>
@@ -1374,7 +1401,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>62</v>
       </c>
@@ -1382,8 +1409,8 @@
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="10" t="s">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A41" s="7" t="s">
         <v>103</v>
       </c>
       <c r="B41" s="9"/>
@@ -1391,7 +1418,7 @@
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>71</v>
       </c>
@@ -1399,7 +1426,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>92</v>
       </c>
@@ -1428,7 +1455,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>93</v>
       </c>
@@ -1457,67 +1484,67 @@
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="14.25" thickBot="1">
-      <c r="A46" s="11" t="s">
+    <row r="46" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B46" s="11"/>
-    </row>
-    <row r="47" spans="1:12" ht="14.25" thickBot="1">
-      <c r="A47" s="15" t="s">
+      <c r="B46" s="8"/>
+    </row>
+    <row r="47" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="17"/>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="A48" s="7" t="s">
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="15"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A48" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="F48" s="16" t="s">
         <v>67</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>68</v>
       </c>
       <c r="H48" s="2"/>
-      <c r="I48" s="7" t="s">
+      <c r="I48" s="16" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
+    <row r="49" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="17"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="I49" s="8"/>
-    </row>
-    <row r="50" spans="1:9" ht="14.25" thickBot="1">
+      <c r="I49" s="17"/>
+    </row>
+    <row r="50" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>99</v>
       </c>
@@ -1546,7 +1573,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="14.25" thickBot="1">
+    <row r="51" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>100</v>
       </c>
@@ -1575,32 +1602,32 @@
         <v>97</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="12" t="s">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A53" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B58" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A59" s="9"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A60" s="9"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
@@ -1608,6 +1635,9 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A59:D61"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="B48:B49"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A46:B46"/>
     <mergeCell ref="A41:E41"/>
@@ -1619,25 +1649,9 @@
     <mergeCell ref="D48:D49"/>
     <mergeCell ref="E48:E49"/>
     <mergeCell ref="F48:F49"/>
-    <mergeCell ref="A59:D61"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="B48:B49"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>